--- a/medicine/Psychotrope/Taurasi_(vin)/Taurasi_(vin).xlsx
+++ b/medicine/Psychotrope/Taurasi_(vin)/Taurasi_(vin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Taurasi est un vin italien de la région Campanie doté d'une appellation DOCG depuis le 26 mars 1970. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -514,7 +526,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province d'Avellino dans les communes Taurasi, Bonito, Castelfranci, Castelvetere sul Calore, Fontanarosa, Lapio, Luogosano, Mirabella Eclano, Montefalcione, Montemarano, Montemiletto, Paternopoli, Pietradefusi, Sant'Angelo all'Esca, San Mango sul Calore, Torre Le Nocelle et Venticano.
 </t>
@@ -545,7 +559,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis intensif
 odeur : fruits rouges, caractéristique
@@ -579,7 +595,9 @@
           <t>La festa del vino</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La festa del vino est une foire aux vins. Cette fête se déroule pendant mi-août en général pendant 5 jours. Elle comprend le 15 août (férié) jour de l'Assomption en Italie. Cette fête réunie tous les vins des alentours du village.
 </t>
@@ -611,6 +629,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,7 +656,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres :
 Avellino  (1990/91)  629,1
@@ -673,7 +695,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Portail de la vigne et du vin   Portail de la Campanie                    </t>
